--- a/medicine/Enfance/Mayana_Itoïz/Mayana_Itoïz.xlsx
+++ b/medicine/Enfance/Mayana_Itoïz/Mayana_Itoïz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mayana_Ito%C3%AFz</t>
+          <t>Mayana_Itoïz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayana Itoïz, née le 30 octobre 1978 à Bayonne, est une illustratrice française d'ouvrages pour la jeunesse, créatrice du personnage du Loup en slip.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mayana_Ito%C3%AFz</t>
+          <t>Mayana_Itoïz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Native de Bayonne, Mayana Itoïz étudie pendant cinq ans aux Beaux-Arts de Toulouse et devient enseignante à Châlons-en-Champagne, avant de s'installer à Pau en 2007[1],[2].
-Elle collabore avec Caroline Pérot, créatrice de la revue mensuelle pour enfants À propos et directrice de la maison d'édition Les P'tits bérets, qui publient ses illustrations dans Le Petit Sapin bleu (2008)[2], Le Dimanche de Monsieur Pervenche (2009) sur un texte de Jeanne Taboni Misérazzi[3], Mystère en chocolat (2017)[4].
-Sur un texte de Christian Desplat, Itoïz illustre une biographie d'Henri IV en 2010 pour les éditions Cairn[2]. Itoïz a également collaboré avec les éditions Fleurus, Auzou et les éditions Talents Hauts[2]. Elle conclut également un contrat avec Danone[2]. Ex-compagne de Wilfrid Lupano, tous deux s'investissent dans un projet humanitaire, The Ink Link, association qui « met en relation des professionnels de la BD et des ONG »[5]. Sur un texte de Pascal Bruckner, elle illustre les maladresses d'un jeune père dans La Boîte à bisous[6].
-Sur un texte de Jean-Pierre Kerloc'h, Itoïz illustre Ça suffit les bisous !, paru en 2016 et qui traite des limites corporelles à travers « le thème des bisous imposés aux enfants », afin de leur enseigner qu'ils peuvent refuser le contact physique avec un adulte[7].
-Le personnage du loup en slip apparaît dans la bande dessinée Les Vieux Fourneaux avant d'être le héros de plusieurs albums jeunesse publiés à partir de 2016. L'artiste explique avoir inventé ce personnage comique pour rassurer son propre enfant, qui avait peur du loup[8]. Lupano et Cauuet, en clin d'œil, glissent dans la série des Vieux fourneaux des allusions au « théâtre du loup en slip » animé par le personnage de Sophie[8]. La série sur le Loup en slip est publiée comme œuvre dérivée des Vieux fourneaux[8]. Les albums tiennent à la fois de la bande dessinée et du livre illustré[9]. Les albums ont vocation à aborder, sous un angle ludique, certains sujets de société (l'exploitation économique des peurs, la solidarité face aux personnes sans-abri, la différence et le handicap...), sans rôles de « gentils » ni de « méchants »[8]. Les aventures du Loup en slip rencontrent un bon succès public[10] : fin 2018, les ventes cumulées des deux premiers volumes représentent 110 000 exemplaires[11].
-En parallèle, Itoïz poursuit les collaborations pour d'autres ouvrages jeunesse, comme Maman, dont elle réalise les textes et dessins[12]. En 2022, elle agit pour la première fois en auteur complet de bande dessinée pour le roman graphique Léo en petits morceaux (Dargaud)[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Native de Bayonne, Mayana Itoïz étudie pendant cinq ans aux Beaux-Arts de Toulouse et devient enseignante à Châlons-en-Champagne, avant de s'installer à Pau en 2007,.
+Elle collabore avec Caroline Pérot, créatrice de la revue mensuelle pour enfants À propos et directrice de la maison d'édition Les P'tits bérets, qui publient ses illustrations dans Le Petit Sapin bleu (2008), Le Dimanche de Monsieur Pervenche (2009) sur un texte de Jeanne Taboni Misérazzi, Mystère en chocolat (2017).
+Sur un texte de Christian Desplat, Itoïz illustre une biographie d'Henri IV en 2010 pour les éditions Cairn. Itoïz a également collaboré avec les éditions Fleurus, Auzou et les éditions Talents Hauts. Elle conclut également un contrat avec Danone. Ex-compagne de Wilfrid Lupano, tous deux s'investissent dans un projet humanitaire, The Ink Link, association qui « met en relation des professionnels de la BD et des ONG ». Sur un texte de Pascal Bruckner, elle illustre les maladresses d'un jeune père dans La Boîte à bisous.
+Sur un texte de Jean-Pierre Kerloc'h, Itoïz illustre Ça suffit les bisous !, paru en 2016 et qui traite des limites corporelles à travers « le thème des bisous imposés aux enfants », afin de leur enseigner qu'ils peuvent refuser le contact physique avec un adulte.
+Le personnage du loup en slip apparaît dans la bande dessinée Les Vieux Fourneaux avant d'être le héros de plusieurs albums jeunesse publiés à partir de 2016. L'artiste explique avoir inventé ce personnage comique pour rassurer son propre enfant, qui avait peur du loup. Lupano et Cauuet, en clin d'œil, glissent dans la série des Vieux fourneaux des allusions au « théâtre du loup en slip » animé par le personnage de Sophie. La série sur le Loup en slip est publiée comme œuvre dérivée des Vieux fourneaux. Les albums tiennent à la fois de la bande dessinée et du livre illustré. Les albums ont vocation à aborder, sous un angle ludique, certains sujets de société (l'exploitation économique des peurs, la solidarité face aux personnes sans-abri, la différence et le handicap...), sans rôles de « gentils » ni de « méchants ». Les aventures du Loup en slip rencontrent un bon succès public : fin 2018, les ventes cumulées des deux premiers volumes représentent 110 000 exemplaires.
+En parallèle, Itoïz poursuit les collaborations pour d'autres ouvrages jeunesse, comme Maman, dont elle réalise les textes et dessins. En 2022, elle agit pour la première fois en auteur complet de bande dessinée pour le roman graphique Léo en petits morceaux (Dargaud).
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mayana_Ito%C3%AFz</t>
+          <t>Mayana_Itoïz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sauf mention contraire, Mayana Itoïz est illustratrice.
 Le petit sapin bleu, texte de Danièle Siegler, éd. Les P'tits bérets, 2008  (ISBN 978-2-918194-10-1) (BNF 42399151) ; réédition :  (ISBN 978-2-918194-00-2) (BNF 41391401)
@@ -572,9 +588,43 @@
 Mystère en chocolat, texte de Caroline Pérot, éd. Les P'tits bérets, 2017  (ISBN 978-2-918194-91-0) (BNF 45261287)
 Papa est à moi !, texte d'Ilan Brenman, traduit par Dorothée de Bruchard, éd. Glénat, coll. P'tit Glénat / Vitamine, 2017  (ISBN 978-2-344-02267-2) (BNF 45361073)
 La vache de la brique de lait, avec Sophie Adriansen, éd. Frimousse, 2017  (ISBN 978-2-35241-314-1) (BNF 45322853)
-Léo en petits morceaux (scénario, dessin et couleurs), éd. Dargaud, 2022  (ISBN 9782505082804)
-Le Loup en slip
-Le Loup en slip, scénario de Wilfrid Lupano, dessin de Mayana Itoïz et Paul Cauuet, couleurs de Mayana Itoïz, novembre 2016  (ISBN 978-2-505-06720-7) (BNF 45155285)
+Léo en petits morceaux (scénario, dessin et couleurs), éd. Dargaud, 2022  (ISBN 9782505082804)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mayana_Itoïz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayana_Ito%C3%AFz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le Loup en slip</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Loup en slip, scénario de Wilfrid Lupano, dessin de Mayana Itoïz et Paul Cauuet, couleurs de Mayana Itoïz, novembre 2016  (ISBN 978-2-505-06720-7) (BNF 45155285)
 ...se les gèle méchamment, scénario de Wilfrid Lupano, dessin et couleurs de Mayana Itoïz, novembre 2017  (ISBN 978-2-505-07040-5) (BNF 45383498)
 Slip hip hip !, scénario de Wilfrid Lupano, dessin et couleurs de Mayana Itoïz, novembre 2018  (ISBN 978-2-505-07142-6)
 N'en fiche pas une, scénario de Wilfrid Lupano, dessin et couleurs de Mayana Itoïz, novembre 2019  (ISBN 978-2-505-07532-5)
